--- a/bao_cao_11_18_12_2022.xlsx
+++ b/bao_cao_11_18_12_2022.xlsx
@@ -213,9 +213,6 @@
     <t>20/11/2022</t>
   </si>
   <si>
-    <t>Giao tiếp 1 số loại sensor thông dụng</t>
-  </si>
-  <si>
     <t xml:space="preserve">  21/11/2022</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
       </rPr>
       <t>, GNU</t>
     </r>
+  </si>
+  <si>
+    <t>Giao tiếp sensor:joystick,HC05,lm35,servo,dht11</t>
   </si>
 </sst>
 </file>
@@ -795,6 +795,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,12 +870,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,60 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,14 +1121,14 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" style="18" customWidth="1"/>
     <col min="2" max="2" width="33.109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="19" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="18" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" style="18" customWidth="1"/>
@@ -1141,19 +1141,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1162,11 +1162,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1180,48 +1180,48 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -1250,10 +1250,10 @@
       <c r="C10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="43" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1270,7 @@
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1283,10 +1283,10 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70">
+      <c r="A12" s="45">
         <v>1</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1308,8 +1308,8 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1329,8 +1329,8 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1350,10 +1350,10 @@
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50">
+      <c r="A15" s="68">
         <v>2</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="69" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1375,8 +1375,8 @@
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1396,8 +1396,8 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1417,8 +1417,8 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1438,8 +1438,8 @@
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="13" t="s">
         <v>38</v>
       </c>
@@ -1459,10 +1459,10 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
+      <c r="A20" s="58">
         <v>3</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -1484,8 +1484,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="33" t="s">
         <v>45</v>
       </c>
@@ -1505,10 +1505,10 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+      <c r="A22" s="58">
         <v>4</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="70" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -1530,10 +1530,10 @@
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="36" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>50</v>
@@ -1551,16 +1551,16 @@
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>18</v>
@@ -1572,20 +1572,20 @@
       <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+      <c r="A25" s="58">
         <v>5</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>57</v>
-      </c>
       <c r="E25" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>18</v>
@@ -1597,16 +1597,16 @@
       <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>61</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>18</v>
@@ -1618,16 +1618,16 @@
       <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="E27" s="37" t="s">
         <v>63</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>64</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>18</v>
@@ -1670,16 +1670,16 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="41"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="41"/>
+      <c r="I32" s="61"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2651,16 +2651,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
@@ -2677,6 +2667,16 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bao_cao_11_18_12_2022.xlsx
+++ b/bao_cao_11_18_12_2022.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>CÔNG TY TNHH CÔNG NGHỆ VÀ THƯƠNG MẠI NGÂN GIANG</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>BÁO CÁO TIẾN ĐỘ CÔNG VIỆC</t>
-  </si>
-  <si>
-    <t>Ngày 1.10.2022</t>
   </si>
   <si>
     <t>Người báo cáo: Trịnh Đăng Nam</t>
@@ -294,7 +291,43 @@
     </r>
   </si>
   <si>
-    <t>Giao tiếp sensor:joystick,HC05,lm35,servo,dht11</t>
+    <t>DHT11</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>Joystick</t>
+  </si>
+  <si>
+    <t>LM35-I2C</t>
+  </si>
+  <si>
+    <t>keypad</t>
+  </si>
+  <si>
+    <t>FRID</t>
+  </si>
+  <si>
+    <t>LCD-I2C</t>
+  </si>
+  <si>
+    <t>hồng ngoại</t>
+  </si>
+  <si>
+    <t>khí gas</t>
+  </si>
+  <si>
+    <t>*Giao tiếp cảm biến thông dụng:</t>
+  </si>
+  <si>
+    <t>HC-05</t>
+  </si>
+  <si>
+    <t>Giao tiếp sensor:joystick,HC05,lm35,servo,dht11,..</t>
+  </si>
+  <si>
+    <t>(từ Ngày 1.10.2022)</t>
   </si>
 </sst>
 </file>
@@ -304,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +439,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -682,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -794,6 +836,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1120,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1132,7 +1177,7 @@
     <col min="4" max="4" width="13.44140625" style="18" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="18" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" style="18" customWidth="1"/>
     <col min="10" max="26" width="8.6640625" style="18" customWidth="1"/>
@@ -1141,19 +1186,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1162,11 +1207,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1180,48 +1225,48 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -1241,399 +1286,399 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="C10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="D10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="43" t="s">
+      <c r="G10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="H10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="I10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="43" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46">
+        <v>1</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
-        <v>1</v>
-      </c>
-      <c r="B12" s="47" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>24</v>
-      </c>
       <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68">
+      <c r="A15" s="69">
         <v>2</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>26</v>
+      <c r="B15" s="70" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="27">
         <v>44844</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="F18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+      <c r="A20" s="59">
         <v>3</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58">
+      <c r="A22" s="59">
         <v>4</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="36" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="37" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="37" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58">
+      <c r="A25" s="59">
         <v>5</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>60</v>
-      </c>
       <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="E27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>63</v>
-      </c>
       <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -1670,33 +1715,75 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="61"/>
+      <c r="B31" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="61"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B32" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
